--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/10/seed2/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.366100000000002</v>
+        <v>6.750600000000004</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.417600000000002</v>
+        <v>9.216300000000004</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.108499999999999</v>
+        <v>9.00490000000001</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.7974</v>
+        <v>6.078799999999998</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.8012</v>
+        <v>-8.744600000000002</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.517100000000001</v>
+        <v>-8.540300000000004</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.138699999999998</v>
+        <v>-8.1831</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.456</v>
+        <v>-7.4152</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.812099999999998</v>
+        <v>-7.737699999999998</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.915299999999998</v>
+        <v>-7.741399999999996</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.556999999999997</v>
+        <v>5.810099999999997</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.076699999999997</v>
+        <v>-8.288299999999998</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.089800000000002</v>
+        <v>-8.0184</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1400,13 +1400,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.995999999999996</v>
+        <v>5.262199999999998</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.361900000000002</v>
+        <v>-8.3642</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.891899999999997</v>
+        <v>4.855699999999998</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.311999999999995</v>
+        <v>5.280699999999997</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.791299999999999</v>
+        <v>-8.062799999999998</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.423300000000005</v>
+        <v>9.411700000000003</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.486099999999998</v>
+        <v>5.4985</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.719700000000002</v>
+        <v>-5.814400000000003</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-8.106900000000003</v>
+        <v>-8.030800000000003</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.5428</v>
+        <v>5.364199999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
